--- a/data/soe_tables_2024.01.30.xlsx
+++ b/data/soe_tables_2024.01.30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0E25C3-77AD-E840-B462-5CC77F481707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF0C9F-B83D-DD4F-A17F-D48F9BBA9FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22640" yWindow="-18120" windowWidth="27640" windowHeight="15840" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="22640" yWindow="-18120" windowWidth="27640" windowHeight="15840" activeTab="5" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="sch_ta1_pl_eff" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="185">
   <si>
     <t>Outcome</t>
   </si>
@@ -473,9 +473,6 @@
   </si>
   <si>
     <t>Low risk: 50% studies and 73.9% participants with schizophrenia.</t>
-  </si>
-  <si>
-    <t>Low risk: 1 study with an overall low risk of bias..</t>
   </si>
   <si>
     <t>Low risk: 50% studies and 86.3% participants with schizophrenia.</t>
@@ -1071,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE69A57-5664-7440-A961-B0C632901626}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -1129,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="211" thickBot="1" x14ac:dyDescent="0.25">
@@ -1140,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -1152,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -1163,13 +1160,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
@@ -1186,13 +1183,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
@@ -1209,13 +1206,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
@@ -1448,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>129</v>
@@ -1471,7 +1468,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>129</v>
@@ -1494,7 +1491,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>129</v>
@@ -1517,7 +1514,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>129</v>
@@ -1588,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>136</v>
@@ -1605,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -1634,7 +1631,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>137</v>
@@ -1651,7 +1648,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
@@ -1674,7 +1671,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>135</v>
@@ -1697,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>4</v>
@@ -1766,7 +1763,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>135</v>
@@ -1789,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>4</v>
@@ -1858,10 +1855,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>138</v>
@@ -1884,7 +1881,7 @@
         <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>138</v>
@@ -1904,7 +1901,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
@@ -1927,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>4</v>
@@ -1944,7 +1941,7 @@
     </row>
     <row r="18" spans="1:7" ht="139" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
@@ -1953,7 +1950,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>138</v>
@@ -1967,7 +1964,7 @@
     </row>
     <row r="19" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
@@ -1999,7 +1996,7 @@
         <v>54</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>138</v>
@@ -2013,13 +2010,13 @@
     </row>
     <row r="21" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>4</v>
@@ -2059,7 +2056,7 @@
     </row>
     <row r="23" spans="1:7" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>23</v>
@@ -2180,7 +2177,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>4</v>
@@ -2203,7 +2200,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>4</v>
@@ -2249,7 +2246,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>4</v>
@@ -2272,7 +2269,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>29</v>
@@ -2295,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>4</v>
@@ -2304,7 +2301,7 @@
         <v>138</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>130</v>
@@ -2318,7 +2315,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>4</v>
@@ -2659,7 +2656,7 @@
     </row>
     <row r="14" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -2682,7 +2679,7 @@
     </row>
     <row r="15" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>7</v>
@@ -2705,7 +2702,7 @@
     </row>
     <row r="16" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
@@ -2896,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA8AE1-5A15-F84E-8EB5-3F360E7F80BD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2946,16 +2943,16 @@
         <v>119</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>129</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="127" thickBot="1" x14ac:dyDescent="0.25">
@@ -2969,7 +2966,7 @@
         <v>122</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>129</v>

--- a/data/soe_tables_2024.01.30.xlsx
+++ b/data/soe_tables_2024.01.30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF0C9F-B83D-DD4F-A17F-D48F9BBA9FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693EA701-8E89-FC4F-A527-A33CF4AFA552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22640" yWindow="-18120" windowWidth="27640" windowHeight="15840" activeTab="5" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="-17520" yWindow="-17740" windowWidth="27640" windowHeight="15840" activeTab="3" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="sch_ta1_pl_eff" sheetId="1" r:id="rId1"/>
@@ -151,15 +151,9 @@
     <t>Low risk: 66.7% studies and 92.2% participants with schizophrenia</t>
   </si>
   <si>
-    <t>Mortality due to any cause</t>
-  </si>
-  <si>
     <t>N=4 n=177; not estimable effect size 0 events in both arms</t>
   </si>
   <si>
-    <t>Mortality due to any cause (Figure 16)</t>
-  </si>
-  <si>
     <t>N=3 n=497; 3% vs. 1%, OR=3.15, 95%CI: 0.13, 78.11</t>
   </si>
   <si>
@@ -596,6 +590,12 @@
   </si>
   <si>
     <t>Weight increased (any cut-off) (Figure 57)</t>
+  </si>
+  <si>
+    <t>Death due to any cause</t>
+  </si>
+  <si>
+    <t>Death due to any cause (Figure 16)</t>
   </si>
 </sst>
 </file>
@@ -1094,85 +1094,85 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="197" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="211" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -1183,19 +1183,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -1206,19 +1206,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1260,16 +1260,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
@@ -1280,19 +1280,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1306,16 +1306,16 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
@@ -1326,19 +1326,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1349,19 +1349,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1372,19 +1372,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1422,21 +1422,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -1445,21 +1445,21 @@
         <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -1468,21 +1468,21 @@
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -1491,16 +1491,16 @@
         <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="91" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1514,16 +1514,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08253F0C-4289-D043-AC5B-88B42FBA67DF}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1559,16 +1559,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1585,13 +1585,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1602,19 +1602,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -1631,13 +1631,13 @@
         <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1648,19 +1648,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1671,19 +1671,19 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1694,640 +1694,640 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="141" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="139" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="98" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +2340,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2366,522 +2366,522 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2893,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA8AE1-5A15-F84E-8EB5-3F360E7F80BD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2920,62 +2920,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="281" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/data/soe_tables_2024.01.30.xlsx
+++ b/data/soe_tables_2024.01.30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693EA701-8E89-FC4F-A527-A33CF4AFA552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B28B17-346C-E049-B101-30AE82B58651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17520" yWindow="-17740" windowWidth="27640" windowHeight="15840" activeTab="3" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="19060" yWindow="-16800" windowWidth="27640" windowHeight="15840" activeTab="5" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="sch_ta1_pl_eff" sheetId="1" r:id="rId1"/>
@@ -394,9 +394,6 @@
     <t xml:space="preserve">2 hours after treatment </t>
   </si>
   <si>
-    <t>N=1, n=96; In anticipation of loss, ulotaront appeared to be associated with smaller BOLD striatal responses compared to placebo (left: -0.13%, p=0.03; right: -0.12%, p=0.06) but not to amisulpride (left: -0.07%, p=0.38; right: -0.03%, p=0.66). In anticipation of a win, ulotaront did not seem to differ in BOLD striatal responses compared to placebo (left: -0.07%, p=0.30; right: -0.07%, p=0.27) and amisulpride (left: -0.03%, p=0.65; right: -0.02%, p=0.74). The interaction with schizotypy traits for BOLD striatal responses was not reported. However, it was reported that ulotaront could reverse, in comparison to placebo, the aberrant BOLD right insular responses to anticipation of loss in participants with high schizotypy traits.</t>
-  </si>
-  <si>
     <t>Dopamine synthesis capacity in the striatum measured with F-DOPA PET in clinically stable patients with schizophrenia treated with ulotaront as add-on to antipsychotic treatment</t>
   </si>
   <si>
@@ -596,6 +593,9 @@
   </si>
   <si>
     <t>Death due to any cause (Figure 16)</t>
+  </si>
+  <si>
+    <t>N=1, n=96; In anticipation of loss, ulotaront appeared to be associated with smaller BOLD striatal responses compared to placebo (left: SMD=-0.55, 95%CI: -1.05, -0.05; right: SMD=-0.44, 95%CI: -0.94, 0.06) but not to amisulpride (left: SMD=-0.22, 95%CI: -0.71, 0.27; right: SMD: -0.11, 95%CI: -0.60, 0.38). In anticipation of a win, ulotaront did not seem to differ in BOLD striatal responses compared to placebo (left: SMD=-0.25, 95%CI: -0.75, 0.25; right: SMD=-0.25, 95%CI: -0.75, 0.25) and amisulpride (left: SMD=-0.11, 95%CI: -0.60, 0.38; right: SMD=-0.08, 95%CI: -0.57, 0.41). The interaction with schizotypy traits for BOLD striatal responses was not reported. However, it was reported that ulotaront could reverse, in comparison to placebo, the aberrant BOLD right insular responses to anticipation of loss in participants with high schizotypy traits.</t>
   </si>
 </sst>
 </file>
@@ -1094,85 +1094,85 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="197" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="211" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="211" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -1183,19 +1183,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -1206,19 +1206,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1260,13 +1260,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>114</v>
@@ -1283,16 +1283,16 @@
         <v>105</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1306,16 +1306,16 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
@@ -1329,16 +1329,16 @@
         <v>106</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1352,16 +1352,16 @@
         <v>107</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1375,16 +1375,16 @@
         <v>108</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1422,13 +1422,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>114</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="2" spans="1:7" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
@@ -1445,21 +1445,21 @@
         <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
@@ -1468,21 +1468,21 @@
         <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
@@ -1491,16 +1491,16 @@
         <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="91" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1514,16 +1514,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08253F0C-4289-D043-AC5B-88B42FBA67DF}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1559,13 +1559,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>114</v>
@@ -1585,13 +1585,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1602,19 +1602,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -1631,13 +1631,13 @@
         <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1648,19 +1648,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1671,19 +1671,19 @@
         <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1694,24 +1694,24 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>33</v>
@@ -1723,18 +1723,18 @@
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -1746,13 +1746,13 @@
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1763,19 +1763,19 @@
         <v>33</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1786,19 +1786,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1812,16 +1812,16 @@
         <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1835,16 +1835,16 @@
         <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="141" thickBot="1" x14ac:dyDescent="0.25">
@@ -1855,19 +1855,19 @@
         <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1881,16 +1881,16 @@
         <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -1901,19 +1901,19 @@
         <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -1924,24 +1924,24 @@
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="139" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
@@ -1950,21 +1950,21 @@
         <v>49</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
@@ -1973,16 +1973,16 @@
         <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="127" thickBot="1" x14ac:dyDescent="0.25">
@@ -1996,39 +1996,39 @@
         <v>52</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
@@ -2042,21 +2042,21 @@
         <v>54</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>23</v>
@@ -2065,16 +2065,16 @@
         <v>55</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
@@ -2088,16 +2088,16 @@
         <v>57</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
@@ -2111,16 +2111,16 @@
         <v>59</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
@@ -2134,16 +2134,16 @@
         <v>61</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="98" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2157,16 +2157,16 @@
         <v>63</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2177,19 +2177,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2200,19 +2200,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2226,16 +2226,16 @@
         <v>67</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2246,19 +2246,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -2269,19 +2269,19 @@
         <v>23</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
@@ -2292,19 +2292,19 @@
         <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2315,19 +2315,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2366,13 +2366,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>114</v>
@@ -2389,16 +2389,16 @@
         <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2412,16 +2412,16 @@
         <v>75</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2435,16 +2435,16 @@
         <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2458,16 +2458,16 @@
         <v>79</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2481,16 +2481,16 @@
         <v>81</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2504,21 +2504,21 @@
         <v>83</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>23</v>
@@ -2527,21 +2527,21 @@
         <v>77</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
@@ -2550,16 +2550,16 @@
         <v>84</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2573,16 +2573,16 @@
         <v>86</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2596,16 +2596,16 @@
         <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2619,16 +2619,16 @@
         <v>90</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -2642,21 +2642,21 @@
         <v>92</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -2665,21 +2665,21 @@
         <v>93</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>7</v>
@@ -2688,21 +2688,21 @@
         <v>94</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
@@ -2711,16 +2711,16 @@
         <v>95</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2734,16 +2734,16 @@
         <v>97</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
@@ -2757,16 +2757,16 @@
         <v>99</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43" thickBot="1" x14ac:dyDescent="0.25">
@@ -2780,16 +2780,16 @@
         <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
@@ -2803,16 +2803,16 @@
         <v>104</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="43" thickBot="1" x14ac:dyDescent="0.25">
@@ -2826,16 +2826,16 @@
         <v>103</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
@@ -2849,16 +2849,16 @@
         <v>101</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="43" thickBot="1" x14ac:dyDescent="0.25">
@@ -2872,16 +2872,16 @@
         <v>102</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2893,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA8AE1-5A15-F84E-8EB5-3F360E7F80BD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2920,19 +2920,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="281" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="333" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2940,42 +2940,42 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data/soe_tables_2024.01.30.xlsx
+++ b/data/soe_tables_2024.01.30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B28B17-346C-E049-B101-30AE82B58651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB6978C-324D-6342-B93C-8EA686B9D8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19060" yWindow="-16800" windowWidth="27640" windowHeight="15840" activeTab="5" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="19060" yWindow="-16800" windowWidth="27640" windowHeight="15840" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="sch_ta1_pl_eff" sheetId="1" r:id="rId1"/>
@@ -553,9 +553,6 @@
     <t>N=3 n=497; Random-effects: 5.6% vs. 6%, OR=0.93, 95%CI: 0.17, 5.06; Fixed-effects: OR=0.71, 95%CI: 0.32, 1.55</t>
   </si>
   <si>
-    <t>N=4, n=1291; Random-effects: SMD=0.15, 95%CI: -0.05, 0.34; Fixed-effects: SMD=0.13, 95%CI: 0.02, 0.25</t>
-  </si>
-  <si>
     <t>N=4,  n=1357; Random-effects: 23.7% vs. 18.7%, OR=1.35, 95%CI: 0.86, 2.12;  Fixed-effects: OR=1.39, 95%CI: 1.04, 1.86</t>
   </si>
   <si>
@@ -596,6 +593,9 @@
   </si>
   <si>
     <t>N=1, n=96; In anticipation of loss, ulotaront appeared to be associated with smaller BOLD striatal responses compared to placebo (left: SMD=-0.55, 95%CI: -1.05, -0.05; right: SMD=-0.44, 95%CI: -0.94, 0.06) but not to amisulpride (left: SMD=-0.22, 95%CI: -0.71, 0.27; right: SMD: -0.11, 95%CI: -0.60, 0.38). In anticipation of a win, ulotaront did not seem to differ in BOLD striatal responses compared to placebo (left: SMD=-0.25, 95%CI: -0.75, 0.25; right: SMD=-0.25, 95%CI: -0.75, 0.25) and amisulpride (left: SMD=-0.11, 95%CI: -0.60, 0.38; right: SMD=-0.08, 95%CI: -0.57, 0.41). The interaction with schizotypy traits for BOLD striatal responses was not reported. However, it was reported that ulotaront could reverse, in comparison to placebo, the aberrant BOLD right insular responses to anticipation of loss in participants with high schizotypy traits.</t>
+  </si>
+  <si>
+    <t>N=4, n=1291; Random-effects: SMD=0.15, 95%CI: -0.05, 0.34; Fixed-effects: SMD=0.13, 95%CI: 0.02, 0.25; Dose effects: uncertain/unclear dose-response indication (Figure 67)</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE69A57-5664-7440-A961-B0C632901626}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
@@ -1137,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -1160,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
@@ -1183,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
@@ -1206,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="8" spans="1:7" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>33</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="9" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="18" spans="1:7" ht="139" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>23</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="19" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="21" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="23" spans="1:7" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>23</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="8" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>23</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="9" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="14" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="15" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>7</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="16" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
@@ -2893,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA8AE1-5A15-F84E-8EB5-3F360E7F80BD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2940,7 +2940,7 @@
         <v>116</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>149</v>

--- a/data/soe_tables_2024.01.30.xlsx
+++ b/data/soe_tables_2024.01.30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB6978C-324D-6342-B93C-8EA686B9D8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD9856B-4C0F-E44F-85ED-443097B88594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19060" yWindow="-16800" windowWidth="27640" windowHeight="15840" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
+    <workbookView xWindow="780" yWindow="640" windowWidth="27640" windowHeight="15840" activeTab="5" xr2:uid="{5B3852FF-2BEC-B94D-907F-9BD79E8D9C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="sch_ta1_pl_eff" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>Overall symptoms (PANSS total) – primary outcome (Figure 40)</t>
   </si>
   <si>
-    <t>Response to treatment (≥50% or ≥20% reduction in PANSS total) (Figure 44)</t>
-  </si>
-  <si>
     <t>N=1, n=214; 7.9% vs. 13.5%, OR=0.55, 95%CI: 0.22, 1.35</t>
   </si>
   <si>
@@ -442,69 +439,24 @@
     <t>Low risk: 75% had overall low risk of bias.</t>
   </si>
   <si>
-    <t>Some concerns: No usable data from studies in schizophrenia. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
-  </si>
-  <si>
-    <t>Some concerns: 33.3% studies and 42.2% participants with schizophrenia. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
-  </si>
-  <si>
-    <t>Some concerns. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
-  </si>
-  <si>
-    <t>Some concerns: 25% studies and 38.4% participants with schizophrenia. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
-  </si>
-  <si>
-    <t>Some concerns. 25% studies and 38.4% participants with schizophrenia.  The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
-  </si>
-  <si>
-    <t>Some concerns: 0% studies and 0% participants with schizophrenia. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
-  </si>
-  <si>
-    <t>Some concerns: 50% studies and 49.6% participants with schizophrenia. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
-  </si>
-  <si>
     <t>Low risk: 50% studies and 73.9% participants with schizophrenia.</t>
   </si>
   <si>
     <t>Low risk: 50% studies and 86.3% participants with schizophrenia.</t>
   </si>
   <si>
-    <t>Some concerns: Ulotaront appeared to cause sedation in 60% of the participants, more frequently compared to placebo (Figure 36) and amisulpride (Figure 63). Consequently, ulotaront was associated with decreased performance and accuracy across the different neuropsychological tasks used in the study, but it was not correlated with the BOLD responses and impaired reaction times by &lt;10% in this task. The impact of this bias on the magnitude and direction of the effects of TAAR1 agonists on this outcome is unclear.</t>
-  </si>
-  <si>
-    <t>Some concerns: The study did not include participants with psychosis, but healthy volunteers with low and high schizotypy traits. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
-  </si>
-  <si>
     <t>High risk. This may have overestimated the effects in favor of TAAR1 agonists.</t>
   </si>
   <si>
     <t>High risk. This may have overestimated the effects of TAAR1 agonists compared to placebo in favor of the former.</t>
   </si>
   <si>
-    <t>Some concerns: Three trials were conducted during COVID-19 (2 in ulotaront, 1 in ralmitaront), which in some cases could be associated with factors related to smaller effect sizes. Specifically, a pooled analysis of the two Phase III ulotaront trials, using only the participants enrolled before COVID-19, showed effect sizes like the Phase II ulotaront trial. This may have underestimated the effects of TAAR1 agonists compared to placebo in favor of the latter.</t>
-  </si>
-  <si>
     <t>High risk: 1 study with overall high risk of bias (due to missing outcome data).This might have overestimated the effects of TAAR1 agonists compared to placebo in favor of the former.</t>
   </si>
   <si>
-    <t>Some concerns. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear, but the number of dropouts in studies examining single doses should be small.</t>
-  </si>
-  <si>
-    <t>Some concerns: The study had a low risk of bias (Figure 2), but it is unclear whether the selection of the primary outcome reported in this table was determined a priori or a posteriori. The findings from all measured outcomes were reported, but not all those regarding interactions with schizotypy traits. Nevertheless, the possibility of bias due to selectively reported results cannot be excluded. This bias could have exaggerated the findings in favor of TAAR1 agonists.</t>
-  </si>
-  <si>
     <t>High risk: The study was single arm without control conditions, and open label. The outcome measure can be considered objective. Uncontrolled findings may be exaggerated in favor of TAAR1 agonists.</t>
   </si>
   <si>
-    <t>Some concerns: 50% of studies had an overall low risk of bias (some concerns regarding the randomization process, missing outcome data, and period/carryover effects). The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
-  </si>
-  <si>
-    <t>Some concerns: 1 study with overall some concerns in risk of bias regarding the randomization process and missing outcome data. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
-  </si>
-  <si>
-    <t>Some concerns: 50% of studies had an overall low risk of bias (some concerns regarding the randomization process and missing outcome data). The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
-  </si>
-  <si>
     <t>N=5, n=1396; Random-effects: 22.9% vs. 19.6%, OR=1.22, 95%CI: 0.93, 1.60; Fixed-effects: OR=1.22, 95%CI: 0.93, 1.60</t>
   </si>
   <si>
@@ -596,6 +548,54 @@
   </si>
   <si>
     <t>N=4, n=1291; Random-effects: SMD=0.15, 95%CI: -0.05, 0.34; Fixed-effects: SMD=0.13, 95%CI: 0.02, 0.25; Dose effects: uncertain/unclear dose-response indication (Figure 67)</t>
+  </si>
+  <si>
+    <t>Response to treatment (≥50%reduction in PANSS total) (Figure 44)</t>
+  </si>
+  <si>
+    <t>Moderate risk: Three trials were conducted during COVID-19 (2 in ulotaront, 1 in ralmitaront), which in some cases could be associated with factors related to smaller effect sizes. Specifically, a pooled analysis of the two Phase III ulotaront trials, using only the participants enrolled before COVID-19, showed effect sizes like the Phase II ulotaront trial. This may have underestimated the effects of TAAR1 agonists compared to placebo in favor of the latter.</t>
+  </si>
+  <si>
+    <t>Moderate risk: No usable data from studies in schizophrenia. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Moderate risk: 33.3% studies and 42.2% participants with schizophrenia. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Moderate risk: 25% studies and 38.4% participants with schizophrenia. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Moderate risk: 0% studies and 0% participants with schizophrenia. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Moderate risk: 50% of studies had an overall low risk of bias (some concerns regarding the randomization process, missing outcome data, and period/carryover effects). The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Moderate risk: 50% studies and 49.6% participants with schizophrenia. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Moderate risk: 50% of studies had an overall low risk of bias (some concerns regarding the randomization process and missing outcome data). The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Moderate risk: 1 study with overall some concerns in risk of bias regarding the randomization process and missing outcome data. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Moderate risk: The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear, but the number of dropouts in studies examining single doses should be small.</t>
+  </si>
+  <si>
+    <t>Moderate risk: The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Moderate risk: 25% studies and 38.4% participants with schizophrenia.  The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Moderate risk: The study had a low risk of bias (Figure 2), but it is unclear whether the selection of the primary outcome reported in this table was determined a priori or a posteriori. The findings from all measured outcomes were reported, but not all those regarding interactions with schizotypy traits. Nevertheless, the possibility of bias due to selectively reported results cannot be excluded. This bias could have exaggerated the findings in favor of TAAR1 agonists.</t>
+  </si>
+  <si>
+    <t>Moderate risk: The study did not include participants with psychosis, but healthy volunteers with low and high schizotypy traits. The impact of the bias on the magnitude and direction of the effects of TAAR1 agonists is unclear.</t>
+  </si>
+  <si>
+    <t>Moderate risk: Ulotaront appeared to cause sedation in 60% of the participants, more frequently compared to placebo (Figure 36) and amisulpride (Figure 63). Consequently, ulotaront was associated with decreased performance and accuracy across the different neuropsychological tasks used in the study, but it was not correlated with the BOLD responses and impaired reaction times by &lt;10% in this task. The impact of this bias on the magnitude and direction of the effects of TAAR1 agonists on this outcome is unclear.</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE69A57-5664-7440-A961-B0C632901626}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,85 +1094,85 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="211" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="211" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -1183,19 +1183,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
@@ -1206,19 +1206,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,16 +1260,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
@@ -1280,111 +1280,111 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1422,108 +1422,108 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="114" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="91" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08253F0C-4289-D043-AC5B-88B42FBA67DF}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,775 +1559,775 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="100" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="104" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="141" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="139" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" s="5" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="98" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D30" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D28D98F-934C-324D-A021-B678B5C46157}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2366,522 +2366,522 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="99" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="43" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2893,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA8AE1-5A15-F84E-8EB5-3F360E7F80BD}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2920,62 +2920,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="333" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="C2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="127" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
